--- a/쇼핑몰_명세서.xlsx
+++ b/쇼핑몰_명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="상품" sheetId="3" r:id="rId3"/>
     <sheet name="주문" sheetId="4" r:id="rId4"/>
     <sheet name="게시판" sheetId="5" r:id="rId5"/>
+    <sheet name="기타" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1960,6 +1961,166 @@
         </r>
       </text>
     </comment>
+    <comment ref="N26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">brg_gnb
+g : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">좋아요
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>싫어요</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">bfr_isdel
+n : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">게시중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">y : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작성자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삭제
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관리자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D34" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2091,6 +2252,54 @@
             <charset val="129"/>
           </rPr>
           <t>기타</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">frg_gnb
+g : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">좋아요
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>싫어요</t>
         </r>
       </text>
     </comment>
@@ -2205,6 +2414,319 @@
             <charset val="129"/>
           </rPr>
           <t>매우불만족</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">pq_status
+a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설문조사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설문조사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공개</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+d : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설문조사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비공개</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sm_isdone
+n : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">미완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">y : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">si_isdelete
+n : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삭제안함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">y : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제함</t>
         </r>
       </text>
     </comment>
@@ -2213,7 +2735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="559">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2231,23 +2753,2205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_qw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입축하금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_joindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종로그인일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_lastlogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본주소여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'s'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_point : 회원포인트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_addr : 회원주소록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_info : 회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 변경값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_status : 회원 상태 변경 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_info : 상품정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이미지2</t>
+  </si>
+  <si>
+    <t>상품 이미지3</t>
+  </si>
+  <si>
+    <t>특별 상품 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_ctgr_big : 상품 대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_ctgr_small : 상품 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_brand : 상품 브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_img2</t>
+  </si>
+  <si>
+    <t>pi_img3</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_stock : 상품 옵션별 재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_cart : 장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션별 재고 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oc_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oc_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oc_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_info : 주문정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_addr2</t>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_upoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_spoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_detail : 주문 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션명(사이즈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_notice : 공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_ctgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문자 IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 만족도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_ctgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_img2</t>
+  </si>
+  <si>
+    <t>bq_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_qdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isanswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_satis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'z'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_adate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_qna : QnA(답변이 하나일 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_qna : QnA(답변을 여럿 달 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_answer : QnA(답변을 여럿 달 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free : 자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply : 자유게시판 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply_gnb : 자유게시판 댓글 좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'g'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply_112 : 자유게시판 댓글 신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review : 구매후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션별 재고ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명&amp;옵션명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review_gnb : 구매후기 좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review_reply : 구매 후기 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_survey_member : 설문조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문조사 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_isdone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_question : 설문조사 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_exam : 설문조사 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기번호 및 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_result : 설문조사 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 보기번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t_admin_info : 관리자 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용여부</t>
+    <t>t_schedule_info : 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_isdelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_schedule_info : 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2255,1305 +4959,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_qw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입축하금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용/적립일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용/적립 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_joindate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종로그인일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_lastlogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본주소여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_addr2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내역상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_addr1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용/적립내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용/적립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'s'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_point : 회원포인트 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_addr : 회원주소록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_info : 회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 변경값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_status : 회원 상태 변경 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_info : 상품정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 이미지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 이미지2</t>
-  </si>
-  <si>
-    <t>상품 이미지3</t>
-  </si>
-  <si>
-    <t>특별 상품 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_ctgr_big : 상품 대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcb_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcb_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_ctgr_small : 상품 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcb_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pb_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_brand : 상품 브랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pb_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_dc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_img2</t>
-  </si>
-  <si>
-    <t>pi_img3</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 수정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 수정자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_stock : 상품 옵션별 재고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_cart : 장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션별 재고 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oc_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oc_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oc_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_info : 주문정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수취인명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 주소1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 주소2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제수단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송장번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_addr1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_addr2</t>
-  </si>
-  <si>
-    <t>char(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_upoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_spoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_invoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_detail : 주문 상세 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션명(사이즈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_notice : 공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_ctgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문자 IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 만족도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_ctgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_img2</t>
-  </si>
-  <si>
-    <t>bq_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_qdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isanswer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_satis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'z'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_adate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_qna : QnA(답변이 하나일 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_qna : QnA(답변을 여럿 달 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 완료 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_answer : QnA(답변을 여럿 달 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
+    <t>si_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3604,12 +5014,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3626,7 +5042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3644,6 +5060,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3927,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3937,12 +5362,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3960,86 +5385,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +5482,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H4"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4078,74 +5503,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="2"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="6"/>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -4154,49 +5579,49 @@
         <v>44896</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
         <v>96</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>95</v>
       </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>-2000</v>
@@ -4205,7 +5630,7 @@
         <v>44897</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U3" s="4">
         <v>202212010001</v>
@@ -4213,43 +5638,43 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
         <v>90</v>
       </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4">
         <v>500</v>
@@ -4258,7 +5683,7 @@
         <v>44898</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U4" s="4">
         <v>202212010001</v>
@@ -4266,43 +5691,43 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5">
         <v>3000</v>
@@ -4311,7 +5736,7 @@
         <v>44899</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U5" s="4">
         <v>202212030005</v>
@@ -4319,40 +5744,40 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6">
         <v>400</v>
@@ -4361,7 +5786,7 @@
         <v>44900</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U6" s="4">
         <v>123</v>
@@ -4369,43 +5794,43 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>-500</v>
@@ -4414,7 +5839,7 @@
         <v>44901</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U7" s="4">
         <v>202212050014</v>
@@ -4422,43 +5847,43 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>-1000</v>
@@ -4467,7 +5892,7 @@
         <v>44902</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U8" s="4">
         <v>202212060123</v>
@@ -4475,40 +5900,40 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9">
         <f>SUM(R2:R8)</f>
@@ -4517,197 +5942,197 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +6155,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4743,561 +6168,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>163</v>
       </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="G3" t="s">
-        <v>147</v>
-      </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="B6" t="s">
-        <v>166</v>
-      </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
         <v>174</v>
       </c>
-      <c r="B13" t="s">
-        <v>175</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
         <v>180</v>
-      </c>
-      <c r="B16" t="s">
-        <v>181</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" t="s">
-        <v>183</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
         <v>185</v>
-      </c>
-      <c r="B19" t="s">
-        <v>186</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
         <v>202</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>203</v>
       </c>
-      <c r="H19" t="s">
-        <v>204</v>
-      </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
         <v>205</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>206</v>
       </c>
-      <c r="H20" t="s">
-        <v>207</v>
-      </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>191</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>192</v>
-      </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5319,7 +6744,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5335,451 +6760,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>237</v>
-      </c>
-      <c r="G3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>206</v>
       </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
         <v>202</v>
       </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" t="s">
         <v>241</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>242</v>
       </c>
-      <c r="H6" t="s">
-        <v>243</v>
-      </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s">
-        <v>221</v>
-      </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" t="s">
         <v>248</v>
       </c>
-      <c r="H9" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" t="s">
-        <v>249</v>
-      </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" t="s">
         <v>250</v>
       </c>
-      <c r="G11" t="s">
-        <v>251</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
         <v>203</v>
       </c>
-      <c r="C12" t="s">
-        <v>204</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
         <v>205</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>206</v>
       </c>
-      <c r="C14" t="s">
-        <v>207</v>
-      </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
         <v>202</v>
       </c>
-      <c r="B15" t="s">
-        <v>203</v>
-      </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" t="s">
         <v>257</v>
       </c>
-      <c r="G17" t="s">
-        <v>258</v>
-      </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5796,10 +7221,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5808,613 +7233,2147 @@
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K3" t="s">
+        <v>429</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>279</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>431</v>
+      </c>
+      <c r="N4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" t="s">
+        <v>431</v>
+      </c>
+      <c r="N5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" t="s">
+        <v>431</v>
+      </c>
+      <c r="N7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" t="s">
+        <v>432</v>
+      </c>
+      <c r="L8" t="s">
+        <v>433</v>
+      </c>
+      <c r="M8" t="s">
+        <v>434</v>
+      </c>
+      <c r="N8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" t="s">
+        <v>435</v>
+      </c>
+      <c r="L9" t="s">
+        <v>433</v>
+      </c>
+      <c r="M9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" t="s">
         <v>289</v>
       </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>290</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" t="s">
+        <v>437</v>
+      </c>
+      <c r="L10" t="s">
+        <v>438</v>
+      </c>
+      <c r="M10" t="s">
+        <v>369</v>
+      </c>
+      <c r="N10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" t="s">
+        <v>364</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" t="s">
+        <v>441</v>
+      </c>
+      <c r="L13" t="s">
+        <v>442</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
         <v>291</v>
       </c>
-      <c r="C10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="F14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I14" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" t="s">
+        <v>443</v>
+      </c>
+      <c r="L14" t="s">
+        <v>364</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>364</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="K16" t="s">
+        <v>445</v>
+      </c>
+      <c r="L16" t="s">
+        <v>364</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="I17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>446</v>
+      </c>
+      <c r="L17" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" t="s">
+        <v>359</v>
+      </c>
+      <c r="N17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" t="s">
         <v>308</v>
       </c>
-      <c r="B17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" t="s">
+        <v>447</v>
+      </c>
+      <c r="L18" t="s">
+        <v>407</v>
+      </c>
+      <c r="M18" t="s">
+        <v>368</v>
+      </c>
+      <c r="N18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" t="s">
+        <v>364</v>
+      </c>
+      <c r="H19" t="s">
+        <v>383</v>
+      </c>
+      <c r="I19" t="s">
+        <v>378</v>
+      </c>
+      <c r="K19" t="s">
+        <v>448</v>
+      </c>
+      <c r="L19" t="s">
+        <v>449</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="N19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
+        <v>384</v>
+      </c>
+      <c r="G20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H21" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" t="s">
+        <v>342</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" t="s">
+        <v>345</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="F23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" t="s">
+        <v>452</v>
+      </c>
+      <c r="L23" t="s">
+        <v>364</v>
+      </c>
+      <c r="M23" t="s">
+        <v>402</v>
+      </c>
+      <c r="N23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>316</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>379</v>
+      </c>
+      <c r="K24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" t="s">
+        <v>389</v>
+      </c>
+      <c r="G25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>380</v>
+      </c>
+      <c r="K25" t="s">
+        <v>457</v>
+      </c>
+      <c r="L25" t="s">
+        <v>364</v>
+      </c>
+      <c r="M25" t="s">
+        <v>408</v>
+      </c>
+      <c r="N25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" t="s">
+        <v>390</v>
+      </c>
+      <c r="G26" t="s">
+        <v>313</v>
+      </c>
+      <c r="H26" t="s">
+        <v>369</v>
+      </c>
+      <c r="I26" t="s">
+        <v>374</v>
+      </c>
+      <c r="K26" t="s">
+        <v>453</v>
+      </c>
+      <c r="L26" t="s">
+        <v>352</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="N26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I27" t="s">
+        <v>373</v>
+      </c>
+      <c r="K27" t="s">
+        <v>454</v>
+      </c>
+      <c r="L27" t="s">
+        <v>313</v>
+      </c>
+      <c r="M27" t="s">
+        <v>369</v>
+      </c>
+      <c r="N27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G28" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I28" t="s">
+        <v>375</v>
+      </c>
+      <c r="K28" t="s">
+        <v>455</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="N28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G32" t="s">
+        <v>364</v>
+      </c>
+      <c r="H32" t="s">
+        <v>402</v>
+      </c>
+      <c r="I32" t="s">
+        <v>400</v>
+      </c>
+      <c r="K32" t="s">
+        <v>458</v>
+      </c>
+      <c r="L32" t="s">
+        <v>364</v>
+      </c>
+      <c r="M32" t="s">
+        <v>381</v>
+      </c>
+      <c r="N32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s">
+        <v>408</v>
+      </c>
+      <c r="I33" t="s">
+        <v>397</v>
+      </c>
+      <c r="K33" t="s">
+        <v>463</v>
+      </c>
+      <c r="L33" t="s">
+        <v>364</v>
+      </c>
+      <c r="M33" t="s">
+        <v>383</v>
+      </c>
+      <c r="N33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" t="s">
+        <v>377</v>
+      </c>
+      <c r="G34" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" t="s">
+        <v>408</v>
+      </c>
+      <c r="I34" t="s">
+        <v>396</v>
+      </c>
+      <c r="K34" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" t="s">
+        <v>466</v>
+      </c>
+      <c r="N34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35" t="s">
+        <v>398</v>
+      </c>
+      <c r="K35" t="s">
+        <v>459</v>
+      </c>
+      <c r="L35" t="s">
+        <v>109</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="F36" t="s">
+        <v>405</v>
+      </c>
+      <c r="G36" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I36" t="s">
+        <v>374</v>
+      </c>
+      <c r="K36" t="s">
+        <v>460</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="s">
+        <v>369</v>
+      </c>
+      <c r="N36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" t="s">
+        <v>406</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I37" t="s">
+        <v>399</v>
+      </c>
+      <c r="K37" t="s">
+        <v>461</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="N37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>462</v>
+      </c>
+      <c r="L38" t="s">
+        <v>352</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="N38" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>328</v>
+      </c>
+      <c r="F41" t="s">
+        <v>410</v>
+      </c>
+      <c r="G41" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" t="s">
+        <v>402</v>
+      </c>
+      <c r="I41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" t="s">
+        <v>408</v>
+      </c>
+      <c r="I42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>364</v>
+      </c>
+      <c r="H43" t="s">
+        <v>408</v>
+      </c>
+      <c r="I43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" t="s">
+        <v>331</v>
+      </c>
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" t="s">
+        <v>369</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>319</v>
       </c>
-      <c r="B25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>306</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" t="s">
-        <v>309</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>311</v>
-      </c>
-      <c r="B36" t="s">
-        <v>310</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B37" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>313</v>
-      </c>
-      <c r="B38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D48" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" t="s">
-        <v>334</v>
-      </c>
-      <c r="D45" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>319</v>
-      </c>
-      <c r="B47" t="s">
-        <v>310</v>
-      </c>
-      <c r="C47" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>321</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D48" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048576" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K30:N30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F39:I39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="S1" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I3" t="s">
+        <v>546</v>
+      </c>
+      <c r="S3" t="s">
+        <v>473</v>
+      </c>
+      <c r="T3" t="s">
+        <v>474</v>
+      </c>
+      <c r="U3" t="s">
+        <v>203</v>
+      </c>
+      <c r="V3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I4" t="s">
+        <v>517</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" t="s">
+        <v>552</v>
+      </c>
+      <c r="S5" t="s">
+        <v>475</v>
+      </c>
+      <c r="T5" t="s">
+        <v>476</v>
+      </c>
+      <c r="V5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I6" t="s">
+        <v>553</v>
+      </c>
+      <c r="S6" t="s">
+        <v>477</v>
+      </c>
+      <c r="T6" t="s">
+        <v>479</v>
+      </c>
+      <c r="U6" t="s">
+        <v>480</v>
+      </c>
+      <c r="V6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H7" t="s">
+        <v>554</v>
+      </c>
+      <c r="I7" t="s">
+        <v>555</v>
+      </c>
+      <c r="S7" t="s">
+        <v>478</v>
+      </c>
+      <c r="T7" t="s">
+        <v>479</v>
+      </c>
+      <c r="U7" t="s">
+        <v>480</v>
+      </c>
+      <c r="V7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G8" t="s">
+        <v>557</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I8" t="s">
+        <v>556</v>
+      </c>
+      <c r="S8" t="s">
+        <v>481</v>
+      </c>
+      <c r="T8" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="V8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S10" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="S11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" t="s">
+        <v>524</v>
+      </c>
+      <c r="V12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" t="s">
+        <v>503</v>
+      </c>
+      <c r="S13" t="s">
+        <v>537</v>
+      </c>
+      <c r="T13" t="s">
+        <v>282</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" t="s">
+        <v>504</v>
+      </c>
+      <c r="S14" t="s">
+        <v>538</v>
+      </c>
+      <c r="T14" t="s">
+        <v>283</v>
+      </c>
+      <c r="U14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>515</v>
+      </c>
+      <c r="S15" t="s">
+        <v>539</v>
+      </c>
+      <c r="T15" t="s">
+        <v>541</v>
+      </c>
+      <c r="U15" t="s">
+        <v>480</v>
+      </c>
+      <c r="V15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16" t="s">
+        <v>505</v>
+      </c>
+      <c r="S16" t="s">
+        <v>540</v>
+      </c>
+      <c r="T16" t="s">
+        <v>541</v>
+      </c>
+      <c r="V16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" t="s">
+        <v>506</v>
+      </c>
+      <c r="S17" t="s">
+        <v>542</v>
+      </c>
+      <c r="T17" t="s">
+        <v>543</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="V17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="S10:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/쇼핑몰_명세서.xlsx
+++ b/쇼핑몰_명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -2735,7 +2735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="560">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3844,1126 +3844,1130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bn_ctgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문자 IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 만족도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_ctgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_img2</t>
+  </si>
+  <si>
+    <t>bq_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_qdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isanswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_satis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'z'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_adate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_qna : QnA(답변이 하나일 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_qna : QnA(답변을 여럿 달 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_answer : QnA(답변을 여럿 달 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free : 자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply : 자유게시판 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply_gnb : 자유게시판 댓글 좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'g'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply_112 : 자유게시판 댓글 신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review : 구매후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션별 재고ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명&amp;옵션명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review_gnb : 구매후기 좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review_reply : 구매 후기 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_survey_member : 설문조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문조사 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_isdone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_question : 설문조사 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_exam : 설문조사 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기번호 및 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_result : 설문조사 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 보기번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_admin_info : 관리자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_schedule_info : 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_isdelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_schedule_info : 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bn_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bn_ctgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문자 IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 만족도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_ctgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_img2</t>
-  </si>
-  <si>
-    <t>bq_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_qdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isanswer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_satis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'z'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_adate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_qna : QnA(답변이 하나일 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_qna : QnA(답변을 여럿 달 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 완료 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_answer : QnA(답변을 여럿 달 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free : 자유게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bf_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_ismem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free_reply : 자유게시판 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_ismem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free_reply_gnb : 자유게시판 댓글 좋아/싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아/싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_gnb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'g'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free_reply_112 : 자유게시판 댓글 신고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_review : 구매후기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션별 재고ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명&amp;옵션명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_review_gnb : 구매후기 좋아/싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_gnb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_review_reply : 구매 후기 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 완료 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_survey_member : 설문조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문조사 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_sdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_edate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_isdone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_question : 설문조사 질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_exam : 설문조사 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_exam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기번호 및 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_result : 설문조사 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 보기번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_admin_info : 관리자 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_schedule_info : 일정관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_sdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_edate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_isdelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_schedule_info : 일정관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5014,7 +5018,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5024,6 +5028,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5042,7 +5052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5062,12 +5072,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5352,7 +5365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -5362,12 +5375,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5482,7 +5495,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5503,28 +5516,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="6"/>
+      <c r="R1" s="7"/>
       <c r="S1" t="s">
         <v>33</v>
       </c>
@@ -5957,7 +5970,7 @@
         <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>557</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
@@ -6020,7 +6033,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
@@ -6030,12 +6043,12 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -6168,18 +6181,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6286,12 +6299,12 @@
       <c r="D6" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6424,12 +6437,12 @@
       <c r="D12" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6536,12 +6549,12 @@
       <c r="D17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6760,18 +6773,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6970,12 +6983,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="F10" t="s">
         <v>248</v>
       </c>
@@ -7223,8 +7236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7245,24 +7258,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7304,7 +7317,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -7316,36 +7329,36 @@
         <v>272</v>
       </c>
       <c r="F3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" t="s">
         <v>336</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>337</v>
       </c>
-      <c r="H3" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" t="s">
-        <v>339</v>
-      </c>
       <c r="K3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
         <v>279</v>
-      </c>
-      <c r="B4" t="s">
-        <v>280</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -7354,16 +7367,16 @@
         <v>277</v>
       </c>
       <c r="F4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="I4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K4" t="s">
         <v>91</v>
@@ -7372,10 +7385,10 @@
         <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -7392,16 +7405,16 @@
         <v>275</v>
       </c>
       <c r="F5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" t="s">
         <v>354</v>
       </c>
-      <c r="G5" t="s">
-        <v>355</v>
-      </c>
-      <c r="H5" t="s">
-        <v>356</v>
-      </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K5" t="s">
         <v>236</v>
@@ -7410,18 +7423,18 @@
         <v>238</v>
       </c>
       <c r="M5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
         <v>281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -7430,13 +7443,13 @@
         <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K6" t="s">
         <v>161</v>
@@ -7445,18 +7458,18 @@
         <v>162</v>
       </c>
       <c r="M6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -7465,16 +7478,16 @@
         <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K7" t="s">
         <v>201</v>
@@ -7483,15 +7496,15 @@
         <v>169</v>
       </c>
       <c r="M7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -7503,159 +7516,159 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K8" t="s">
+        <v>430</v>
+      </c>
+      <c r="L8" t="s">
+        <v>431</v>
+      </c>
+      <c r="M8" t="s">
         <v>432</v>
       </c>
-      <c r="L8" t="s">
-        <v>433</v>
-      </c>
-      <c r="M8" t="s">
-        <v>434</v>
-      </c>
       <c r="N8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" t="s">
         <v>285</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D9" t="s">
         <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
         <v>288</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>290</v>
       </c>
       <c r="D10" t="s">
         <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="H12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L12" t="s">
         <v>165</v>
       </c>
       <c r="N12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -7672,33 +7685,33 @@
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -7707,31 +7720,31 @@
         <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -7748,21 +7761,21 @@
         <v>223</v>
       </c>
       <c r="K15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -7771,39 +7784,39 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="K16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
         <v>306</v>
-      </c>
-      <c r="B17" t="s">
-        <v>307</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>102</v>
@@ -7818,149 +7831,149 @@
         <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K19" t="s">
+        <v>446</v>
+      </c>
+      <c r="L19" t="s">
+        <v>447</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="L19" t="s">
-        <v>449</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="N19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
         <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" t="s">
         <v>312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -7969,16 +7982,16 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>102</v>
@@ -7995,7 +8008,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -8004,10 +8017,10 @@
         <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G23" t="s">
         <v>109</v>
@@ -8016,24 +8029,24 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -8042,19 +8055,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K24" t="s">
         <v>91</v>
@@ -8063,177 +8076,177 @@
         <v>61</v>
       </c>
       <c r="M24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" t="s">
         <v>322</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" t="s">
+        <v>350</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G28" t="s">
-        <v>352</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="I28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K28" t="s">
-        <v>455</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>368</v>
+        <v>453</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="N28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="F30" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="F30" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -8275,7 +8288,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -8284,31 +8297,31 @@
         <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -8331,27 +8344,27 @@
         <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -8360,19 +8373,19 @@
         <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K34" t="s">
         <v>91</v>
@@ -8381,39 +8394,39 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" t="s">
         <v>306</v>
-      </c>
-      <c r="B35" t="s">
-        <v>307</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L35" t="s">
         <v>109</v>
@@ -8422,128 +8435,128 @@
         <v>16</v>
       </c>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
         <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F37" t="s">
-        <v>406</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>368</v>
+        <v>404</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="I37" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K37" t="s">
-        <v>461</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="N37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s">
         <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" t="s">
         <v>312</v>
-      </c>
-      <c r="B39" t="s">
-        <v>313</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -8552,7 +8565,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>102</v>
@@ -8569,7 +8582,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -8578,19 +8591,19 @@
         <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -8601,30 +8614,30 @@
         <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -8641,42 +8654,42 @@
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>369</v>
+        <v>414</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="I44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" t="s">
         <v>330</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>331</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>332</v>
       </c>
-      <c r="D45" t="s">
-        <v>333</v>
-      </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -8690,78 +8703,78 @@
         <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>368</v>
+        <v>410</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G1048576" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F39:I39"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="K30:N30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8792,20 +8805,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="S1" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
@@ -8851,51 +8864,51 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" t="s">
         <v>490</v>
       </c>
-      <c r="B3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" t="s">
-        <v>492</v>
-      </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G3" t="s">
         <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="T3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U3" t="s">
         <v>203</v>
       </c>
       <c r="V3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
         <v>91</v>
@@ -8904,10 +8917,10 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S4" t="s">
         <v>91</v>
@@ -8919,21 +8932,21 @@
         <v>189</v>
       </c>
       <c r="V4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G5" t="s">
         <v>220</v>
@@ -8942,21 +8955,21 @@
         <v>242</v>
       </c>
       <c r="I5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="S5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="V5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
@@ -8965,71 +8978,71 @@
         <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G6" t="s">
         <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="S6" t="s">
+        <v>475</v>
+      </c>
+      <c r="T6" t="s">
         <v>477</v>
       </c>
-      <c r="T6" t="s">
-        <v>479</v>
-      </c>
       <c r="U6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S7" t="s">
+        <v>476</v>
+      </c>
+      <c r="T7" t="s">
+        <v>477</v>
+      </c>
+      <c r="U7" t="s">
         <v>478</v>
       </c>
-      <c r="T7" t="s">
-        <v>479</v>
-      </c>
-      <c r="U7" t="s">
-        <v>480</v>
-      </c>
       <c r="V7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s">
         <v>220</v>
@@ -9038,31 +9051,31 @@
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="T8" t="s">
         <v>111</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -9076,24 +9089,24 @@
         <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S10" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="S11" s="2" t="s">
         <v>102</v>
       </c>
@@ -9127,142 +9140,142 @@
         <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
         <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="T13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U13" t="s">
         <v>16</v>
       </c>
       <c r="V13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
         <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="T14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U14" t="s">
         <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S15" t="s">
+        <v>537</v>
+      </c>
+      <c r="T15" t="s">
         <v>539</v>
       </c>
-      <c r="T15" t="s">
-        <v>541</v>
-      </c>
       <c r="U15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" t="s">
         <v>510</v>
       </c>
-      <c r="B16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" t="s">
-        <v>512</v>
-      </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="T16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="V16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S17" t="s">
+        <v>540</v>
+      </c>
+      <c r="T17" t="s">
+        <v>541</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="T17" t="s">
-        <v>543</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="V17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B18" t="s">
         <v>169</v>
@@ -9271,16 +9284,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -9298,16 +9311,16 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
         <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -9318,43 +9331,43 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
         <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
         <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B26" t="s">
         <v>220</v>
@@ -9363,7 +9376,7 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/쇼핑몰_명세서.xlsx
+++ b/쇼핑몰_명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -2735,7 +2735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="561">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3157,1817 +3157,1821 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 변경값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_status : 회원 상태 변경 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_info : 상품정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이미지2</t>
+  </si>
+  <si>
+    <t>상품 이미지3</t>
+  </si>
+  <si>
+    <t>특별 상품 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_ctgr_big : 상품 대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_ctgr_small : 상품 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_brand : 상품 브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_img2</t>
+  </si>
+  <si>
+    <t>pi_img3</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_stock : 상품 옵션별 재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_cart : 장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션별 재고 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oc_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oc_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oc_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_addr2</t>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_upoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_spoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_detail : 주문 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션명(사이즈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_notice : 공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_ctgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문자 IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 만족도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_ctgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_img2</t>
+  </si>
+  <si>
+    <t>bq_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_qdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isanswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_satis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'z'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_adate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_qna : QnA(답변이 하나일 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_qna : QnA(답변을 여럿 달 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bq_isend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_answer : QnA(답변을 여럿 달 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free : 자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply : 자유게시판 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply_gnb : 자유게시판 댓글 좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'g'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_free_reply_112 : 자유게시판 댓글 신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr1_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review : 구매후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션별 재고ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명&amp;옵션명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review_gnb : 구매후기 좋아/싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_bbs_review_reply : 구매 후기 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_survey_member : 설문조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문조사 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_isdone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_question : 설문조사 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_exam : 설문조사 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기번호 및 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_result : 설문조사 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 보기번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_admin_info : 관리자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_schedule_info : 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_isdelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_schedule_info : 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfr_isdel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t_member_info : 회원정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 변경값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_status : 회원 상태 변경 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_info : 상품정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 이미지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 이미지2</t>
-  </si>
-  <si>
-    <t>상품 이미지3</t>
-  </si>
-  <si>
-    <t>특별 상품 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_ctgr_big : 상품 대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcb_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcb_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_ctgr_small : 상품 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcb_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pb_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_brand : 상품 브랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pb_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_dc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_img2</t>
-  </si>
-  <si>
-    <t>pi_img3</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 수정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 수정자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_product_stock : 상품 옵션별 재고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_cart : 장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션별 재고 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oc_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oc_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oc_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_order_info : 주문정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수취인명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 주소1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 주소2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제수단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송장번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_name</t>
+    <t>varchar(13)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>oi_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_addr1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_addr2</t>
-  </si>
-  <si>
-    <t>char(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_upoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_spoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_invoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_detail : 주문 상세 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션명(사이즈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_notice : 공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_ctgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문자 IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 만족도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_ctgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_img2</t>
-  </si>
-  <si>
-    <t>bq_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_qdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isanswer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_satis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'z'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_adate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_qna : QnA(답변이 하나일 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_qna : QnA(답변을 여럿 달 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bq_isend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 완료 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_answer : QnA(답변을 여럿 달 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free : 자유게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_ismem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free_reply : 자유게시판 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_ismem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfr_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free_reply_gnb : 자유게시판 댓글 좋아/싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아/싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_gnb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'g'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_free_reply_112 : 자유게시판 댓글 신고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr1_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_review : 구매후기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션별 재고ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명&amp;옵션명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_review_gnb : 구매후기 좋아/싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_gnb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brr_isdel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_bbs_review_reply : 구매 후기 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 완료 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_survey_member : 설문조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문조사 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_sdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_edate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_isdone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_question : 설문조사 질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_exam : 설문조사 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_exam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기번호 및 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_result : 설문조사 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 보기번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_admin_info : 관리자 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_schedule_info : 일정관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_sdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_edate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_isdelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_schedule_info : 일정관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5375,12 +5379,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5495,7 +5499,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="K1" sqref="K1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5513,27 +5517,30 @@
     <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>98</v>
@@ -5970,7 +5977,7 @@
         <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
@@ -5979,7 +5986,7 @@
         <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -5988,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -6043,12 +6050,12 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -6066,7 +6073,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -6094,35 +6101,35 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -6131,21 +6138,21 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6168,7 +6175,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G19"/>
+      <selection activeCell="F17" sqref="F17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6181,18 +6188,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6222,45 +6229,45 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>162</v>
       </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
         <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -6269,46 +6276,46 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -6317,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>102</v>
@@ -6334,7 +6341,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -6343,50 +6350,50 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
         <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
         <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -6395,10 +6402,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -6407,55 +6414,55 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>102</v>
@@ -6472,45 +6479,45 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
         <v>176</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -6519,46 +6526,46 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
         <v>179</v>
-      </c>
-      <c r="B16" t="s">
-        <v>180</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
         <v>181</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -6567,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>102</v>
@@ -6584,59 +6591,59 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
         <v>184</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
         <v>201</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>202</v>
       </c>
-      <c r="H19" t="s">
-        <v>203</v>
-      </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
         <v>204</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>205</v>
       </c>
-      <c r="H20" t="s">
-        <v>206</v>
-      </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -6648,16 +6655,16 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -6668,27 +6675,27 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -6697,24 +6704,24 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6723,19 +6730,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -6756,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6773,18 +6780,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6814,28 +6821,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
         <v>202</v>
       </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" t="s">
         <v>236</v>
-      </c>
-      <c r="G3" t="s">
-        <v>238</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -6849,7 +6856,7 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>91</v>
@@ -6861,24 +6868,24 @@
         <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
         <v>204</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>205</v>
       </c>
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -6887,38 +6894,38 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" t="s">
-        <v>202</v>
-      </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>559</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -6927,76 +6934,76 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
         <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>220</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7013,202 +7020,202 @@
         <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
         <v>202</v>
-      </c>
-      <c r="C12" t="s">
-        <v>203</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
         <v>236</v>
       </c>
-      <c r="B13" t="s">
-        <v>238</v>
-      </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
         <v>204</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>205</v>
       </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
         <v>201</v>
       </c>
-      <c r="B15" t="s">
-        <v>202</v>
-      </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -7217,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7236,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7259,19 +7266,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="K1" s="9" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -7317,66 +7324,66 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K4" t="s">
         <v>91</v>
@@ -7385,10 +7392,10 @@
         <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -7399,112 +7406,112 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" t="s">
         <v>236</v>
       </c>
-      <c r="L5" t="s">
-        <v>238</v>
-      </c>
       <c r="M5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" t="s">
         <v>161</v>
       </c>
-      <c r="L6" t="s">
-        <v>162</v>
-      </c>
       <c r="M6" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N6" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" t="s">
         <v>353</v>
       </c>
-      <c r="H7" t="s">
-        <v>357</v>
-      </c>
       <c r="I7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -7513,162 +7520,162 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M8" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="N8" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L9" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N9" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K11" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K12" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -7685,66 +7692,66 @@
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K13" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L13" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -7758,65 +7765,65 @@
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K15" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="K16" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L16" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>102</v>
@@ -7831,141 +7838,141 @@
         <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>553</v>
       </c>
       <c r="G18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H18" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I18" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K18" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L18" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N18" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F19" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H19" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K19" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L19" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F20" t="s">
-        <v>382</v>
+        <v>554</v>
       </c>
       <c r="G20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -7973,7 +7980,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -7982,16 +7989,16 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>102</v>
@@ -8008,45 +8015,45 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K23" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L23" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M23" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="N23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -8055,19 +8062,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G24" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K24" t="s">
         <v>91</v>
@@ -8076,173 +8083,173 @@
         <v>61</v>
       </c>
       <c r="M24" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N24" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G25" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K25" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L25" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N25" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F26" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G26" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H26" t="s">
+        <v>362</v>
+      </c>
+      <c r="I26" t="s">
         <v>367</v>
       </c>
-      <c r="I26" t="s">
-        <v>372</v>
-      </c>
       <c r="K26" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L26" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="N26" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F27" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I27" t="s">
         <v>366</v>
       </c>
-      <c r="I27" t="s">
-        <v>371</v>
-      </c>
       <c r="K27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M27" t="s">
+        <v>362</v>
+      </c>
+      <c r="N27" t="s">
         <v>367</v>
-      </c>
-      <c r="N27" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F28" t="s">
+        <v>555</v>
+      </c>
+      <c r="G28" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I28" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" t="s">
+        <v>446</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="N28" t="s">
         <v>390</v>
-      </c>
-      <c r="G28" t="s">
-        <v>350</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K28" t="s">
-        <v>453</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="N28" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -8288,40 +8295,40 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H32" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I32" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K32" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M32" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N32" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -8335,7 +8342,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -8344,48 +8351,48 @@
         <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K33" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L33" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M33" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N33" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G34" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H34" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I34" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K34" t="s">
         <v>91</v>
@@ -8394,161 +8401,161 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="N34" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F35" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I35" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K35" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M35" t="s">
         <v>16</v>
       </c>
       <c r="N35" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F36" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H36" t="s">
+        <v>362</v>
+      </c>
+      <c r="I36" t="s">
         <v>367</v>
       </c>
-      <c r="I36" t="s">
-        <v>372</v>
-      </c>
       <c r="K36" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s">
+        <v>362</v>
+      </c>
+      <c r="N36" t="s">
         <v>367</v>
-      </c>
-      <c r="N36" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H37" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I37" t="s">
+        <v>390</v>
+      </c>
+      <c r="K37" t="s">
+        <v>452</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="N37" t="s">
         <v>366</v>
-      </c>
-      <c r="I37" t="s">
-        <v>397</v>
-      </c>
-      <c r="K37" t="s">
-        <v>459</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="N37" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -8556,7 +8563,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -8565,7 +8572,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>102</v>
@@ -8582,28 +8589,28 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H41" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -8614,30 +8621,30 @@
         <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I42" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H43" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I43" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -8654,42 +8661,42 @@
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I44" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F45" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H45" t="s">
+        <v>362</v>
+      </c>
+      <c r="I45" t="s">
         <v>367</v>
-      </c>
-      <c r="I45" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -8700,81 +8707,81 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G1048576" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F39:I39"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="K30:N30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8788,7 +8795,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8805,20 +8812,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="S1" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
@@ -8864,51 +8871,51 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="S3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="T3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="U3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F4" t="s">
         <v>91</v>
@@ -8917,10 +8924,10 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="S4" t="s">
         <v>91</v>
@@ -8929,153 +8936,153 @@
         <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" t="s">
+        <v>543</v>
+      </c>
+      <c r="S5" t="s">
         <v>466</v>
       </c>
-      <c r="F5" t="s">
-        <v>548</v>
-      </c>
-      <c r="G5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" t="s">
-        <v>550</v>
-      </c>
-      <c r="S5" t="s">
-        <v>473</v>
-      </c>
       <c r="T5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="V5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="S6" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="T6" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="U6" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="V6" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="S7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="T7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="U7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="V7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I8" t="s">
+        <v>547</v>
+      </c>
+      <c r="S8" t="s">
+        <v>472</v>
+      </c>
+      <c r="T8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" t="s">
-        <v>486</v>
-      </c>
-      <c r="F8" t="s">
-        <v>556</v>
-      </c>
-      <c r="G8" t="s">
-        <v>555</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="I8" t="s">
-        <v>554</v>
-      </c>
-      <c r="S8" t="s">
-        <v>479</v>
-      </c>
-      <c r="T8" t="s">
-        <v>111</v>
-      </c>
       <c r="U8" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -9086,27 +9093,27 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S10" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="S11" s="2" t="s">
         <v>102</v>
       </c>
@@ -9140,160 +9147,160 @@
         <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="V12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="S13" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="T13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U13" t="s">
         <v>16</v>
       </c>
       <c r="V13" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B14" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="S14" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="T14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="U14" t="s">
         <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="S15" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="T15" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="U15" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="V15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="S16" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="T16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="V16" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D17" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="S17" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="T17" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="V17" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -9311,16 +9318,16 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -9331,52 +9338,52 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D24" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D25" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
